--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp8a-Acvr2a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H2">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I2">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J2">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N2">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O2">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P2">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q2">
-        <v>9.768333007758748</v>
+        <v>8.263959629919</v>
       </c>
       <c r="R2">
-        <v>39.07333203103499</v>
+        <v>33.055838519676</v>
       </c>
       <c r="S2">
-        <v>0.05331137029463108</v>
+        <v>0.09300312468270545</v>
       </c>
       <c r="T2">
-        <v>0.03293892149919039</v>
+        <v>0.05621378415602621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H3">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I3">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J3">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P3">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q3">
-        <v>24.07507788476083</v>
+        <v>14.679287744143</v>
       </c>
       <c r="R3">
-        <v>144.450467308565</v>
+        <v>88.07572646485799</v>
       </c>
       <c r="S3">
-        <v>0.1313914452923682</v>
+        <v>0.1652016332920086</v>
       </c>
       <c r="T3">
-        <v>0.1217721232327715</v>
+        <v>0.1497789830360431</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H4">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I4">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J4">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N4">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O4">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P4">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q4">
-        <v>5.421945161599999</v>
+        <v>4.714412891492999</v>
       </c>
       <c r="R4">
-        <v>32.5316709696</v>
+        <v>28.286477348958</v>
       </c>
       <c r="S4">
-        <v>0.02959065031849902</v>
+        <v>0.05305630104555278</v>
       </c>
       <c r="T4">
-        <v>0.02742428404759626</v>
+        <v>0.04810314919956339</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H5">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I5">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J5">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N5">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O5">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P5">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q5">
-        <v>15.9576469366625</v>
+        <v>4.9453336972155</v>
       </c>
       <c r="R5">
-        <v>63.83058774665</v>
+        <v>19.781334788862</v>
       </c>
       <c r="S5">
-        <v>0.08708999009305789</v>
+        <v>0.05565509840761721</v>
       </c>
       <c r="T5">
-        <v>0.05380935307396141</v>
+        <v>0.03363955458208356</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H6">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I6">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J6">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N6">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O6">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P6">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q6">
-        <v>9.660609172815832</v>
+        <v>2.105670670451</v>
       </c>
       <c r="R6">
-        <v>57.96365503689499</v>
+        <v>12.634024022706</v>
       </c>
       <c r="S6">
-        <v>0.05272345982417127</v>
+        <v>0.02369735098846191</v>
       </c>
       <c r="T6">
-        <v>0.0488635133945054</v>
+        <v>0.02148504867034927</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H7">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I7">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J7">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N7">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O7">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P7">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q7">
-        <v>5.553436563964167</v>
+        <v>2.346151816803</v>
       </c>
       <c r="R7">
-        <v>33.320619383785</v>
+        <v>14.076910900818</v>
       </c>
       <c r="S7">
-        <v>0.03030827397408372</v>
+        <v>0.0264037410290234</v>
       </c>
       <c r="T7">
-        <v>0.02808936963234009</v>
+        <v>0.02393877954392765</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H8">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I8">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J8">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N8">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O8">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P8">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q8">
-        <v>2.3658500124205</v>
+        <v>3.282597661842334</v>
       </c>
       <c r="R8">
-        <v>14.195100074523</v>
+        <v>19.695585971054</v>
       </c>
       <c r="S8">
-        <v>0.01291179426146994</v>
+        <v>0.03694256183466765</v>
       </c>
       <c r="T8">
-        <v>0.01196650663568912</v>
+        <v>0.03349373267128785</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H9">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I9">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J9">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>78.962081</v>
       </c>
       <c r="O9">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P9">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q9">
-        <v>5.830884682928556</v>
+        <v>5.830884682928557</v>
       </c>
       <c r="R9">
-        <v>52.477962146357</v>
+        <v>52.47796214635701</v>
       </c>
       <c r="S9">
-        <v>0.03182246676377579</v>
+        <v>0.06562114524538126</v>
       </c>
       <c r="T9">
-        <v>0.044239059883692</v>
+        <v>0.08924247482899252</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H10">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I10">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J10">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N10">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O10">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P10">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q10">
-        <v>1.313172781653333</v>
+        <v>1.872652024889667</v>
       </c>
       <c r="R10">
-        <v>11.81855503488</v>
+        <v>16.853868224007</v>
       </c>
       <c r="S10">
-        <v>0.007166733604182687</v>
+        <v>0.02107494440408363</v>
       </c>
       <c r="T10">
-        <v>0.009963072927043173</v>
+        <v>0.02866119127410732</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H11">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I11">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J11">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N11">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O11">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P11">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q11">
-        <v>3.864876348228333</v>
+        <v>1.964378041337167</v>
       </c>
       <c r="R11">
-        <v>23.18925808937</v>
+        <v>11.786268248023</v>
       </c>
       <c r="S11">
-        <v>0.02109283682074599</v>
+        <v>0.02210723479831906</v>
       </c>
       <c r="T11">
-        <v>0.01954860545866765</v>
+        <v>0.02004338020059654</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H12">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I12">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J12">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N12">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O12">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P12">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q12">
-        <v>2.339759743381222</v>
+        <v>0.8364113486721111</v>
       </c>
       <c r="R12">
-        <v>21.057837690431</v>
+        <v>7.527702138049</v>
       </c>
       <c r="S12">
-        <v>0.01276940476750667</v>
+        <v>0.00941302625256709</v>
       </c>
       <c r="T12">
-        <v>0.01775181246577261</v>
+        <v>0.0128013882608745</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H13">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I13">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J13">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N13">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O13">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P13">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q13">
-        <v>1.345019457608111</v>
+        <v>0.9319349092996668</v>
       </c>
       <c r="R13">
-        <v>12.105175118473</v>
+        <v>8.387414183697002</v>
       </c>
       <c r="S13">
-        <v>0.007340539097211005</v>
+        <v>0.01048805444934298</v>
       </c>
       <c r="T13">
-        <v>0.01020469441010642</v>
+        <v>0.01426338921243488</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H14">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I14">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J14">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N14">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O14">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P14">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q14">
-        <v>1.3525738778075</v>
+        <v>3.160835755665</v>
       </c>
       <c r="R14">
-        <v>8.115443266844999</v>
+        <v>18.96501453399</v>
       </c>
       <c r="S14">
-        <v>0.007381767881312751</v>
+        <v>0.03557224563650813</v>
       </c>
       <c r="T14">
-        <v>0.006841339983122496</v>
+        <v>0.03225134443027474</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H15">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I15">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J15">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>78.962081</v>
       </c>
       <c r="O15">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P15">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q15">
-        <v>3.333559720706111</v>
+        <v>5.614598769505</v>
       </c>
       <c r="R15">
-        <v>30.002037486355</v>
+        <v>50.531388925545</v>
       </c>
       <c r="S15">
-        <v>0.01819313863774653</v>
+        <v>0.06318704988745888</v>
       </c>
       <c r="T15">
-        <v>0.02529179637902096</v>
+        <v>0.08593218981493989</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H16">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I16">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J16">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N16">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O16">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P16">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q16">
-        <v>0.7507505514666666</v>
+        <v>1.803189451755</v>
       </c>
       <c r="R16">
-        <v>6.7567549632</v>
+        <v>16.228705065795</v>
       </c>
       <c r="S16">
-        <v>0.004097274388204029</v>
+        <v>0.02029320820989457</v>
       </c>
       <c r="T16">
-        <v>0.005695962175566079</v>
+        <v>0.02759805724357559</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H17">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I17">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J17">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N17">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O17">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P17">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q17">
-        <v>2.209578275091666</v>
+        <v>1.8915130607925</v>
       </c>
       <c r="R17">
-        <v>13.25746965055</v>
+        <v>11.349078364755</v>
       </c>
       <c r="S17">
-        <v>0.01205893017005275</v>
+        <v>0.02128720769580707</v>
       </c>
       <c r="T17">
-        <v>0.01117608172629137</v>
+        <v>0.0192999079780239</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H18">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I18">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J18">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N18">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O18">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P18">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q18">
-        <v>1.337657878829444</v>
+        <v>0.805386212285</v>
       </c>
       <c r="R18">
-        <v>12.038920909465</v>
+        <v>7.248475910564999</v>
       </c>
       <c r="S18">
-        <v>0.007300362758841819</v>
+        <v>0.009063867404154768</v>
       </c>
       <c r="T18">
-        <v>0.0101488419379453</v>
+        <v>0.01232654437291371</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H19">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I19">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J19">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N19">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O19">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P19">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q19">
-        <v>0.7689575306772223</v>
+        <v>0.8973665026050001</v>
       </c>
       <c r="R19">
-        <v>6.920617776095</v>
+        <v>8.076298523445001</v>
       </c>
       <c r="S19">
-        <v>0.004196640268735501</v>
+        <v>0.01009901941264374</v>
       </c>
       <c r="T19">
-        <v>0.005834098957100293</v>
+        <v>0.01373431509554156</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H20">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I20">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J20">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N20">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O20">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P20">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q20">
-        <v>4.026446777706751</v>
+        <v>1.576869040838</v>
       </c>
       <c r="R20">
-        <v>16.105787110827</v>
+        <v>6.307476163352</v>
       </c>
       <c r="S20">
-        <v>0.0219746189004258</v>
+        <v>0.01774618398211997</v>
       </c>
       <c r="T20">
-        <v>0.01357722082429095</v>
+        <v>0.01072630795328029</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H21">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I21">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J21">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>78.962081</v>
       </c>
       <c r="O21">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P21">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q21">
-        <v>9.923599010715501</v>
+        <v>2.800995578619333</v>
       </c>
       <c r="R21">
-        <v>59.54159406429301</v>
+        <v>16.805973471716</v>
       </c>
       <c r="S21">
-        <v>0.0541587455193721</v>
+        <v>0.03152258151055294</v>
       </c>
       <c r="T21">
-        <v>0.05019372013788447</v>
+        <v>0.02857974287079756</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H22">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I22">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J22">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N22">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O22">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P22">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q22">
-        <v>2.23489244352</v>
+        <v>0.8995701899859998</v>
       </c>
       <c r="R22">
-        <v>13.40935466112</v>
+        <v>5.397421139915999</v>
       </c>
       <c r="S22">
-        <v>0.01219708403988004</v>
+        <v>0.01012381984989598</v>
       </c>
       <c r="T22">
-        <v>0.01130412118901483</v>
+        <v>0.009178695218329159</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H23">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I23">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J23">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N23">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O23">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P23">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q23">
-        <v>6.577643906782501</v>
+        <v>0.9436328289310001</v>
       </c>
       <c r="R23">
-        <v>26.31057562713</v>
+        <v>3.774531315724</v>
       </c>
       <c r="S23">
-        <v>0.03589795819841343</v>
+        <v>0.01061970357720928</v>
       </c>
       <c r="T23">
-        <v>0.02217988433881693</v>
+        <v>0.006418856643009468</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H24">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I24">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J24">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N24">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O24">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P24">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q24">
-        <v>3.9820436755865</v>
+        <v>0.4017888565686666</v>
       </c>
       <c r="R24">
-        <v>23.892262053519</v>
+        <v>2.410733139412</v>
       </c>
       <c r="S24">
-        <v>0.02173228582092465</v>
+        <v>0.004521757220145523</v>
       </c>
       <c r="T24">
-        <v>0.02014123964636198</v>
+        <v>0.004099621683353197</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H25">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I25">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J25">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N25">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O25">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P25">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q25">
-        <v>2.2890923907295</v>
+        <v>0.447675730606</v>
       </c>
       <c r="R25">
-        <v>13.734554344377</v>
+        <v>2.686054383636</v>
       </c>
       <c r="S25">
-        <v>0.01249288409638303</v>
+        <v>0.005038171004639718</v>
       </c>
       <c r="T25">
-        <v>0.01157826537589543</v>
+        <v>0.004567824871941626</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H26">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I26">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J26">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N26">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O26">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P26">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q26">
-        <v>5.7973946046665</v>
+        <v>2.620340719518667</v>
       </c>
       <c r="R26">
-        <v>34.784367627999</v>
+        <v>15.722044317112</v>
       </c>
       <c r="S26">
-        <v>0.03163969228608277</v>
+        <v>0.02948948029299041</v>
       </c>
       <c r="T26">
-        <v>0.02932331324565792</v>
+        <v>0.02673644491600315</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H27">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I27">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J27">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>78.962081</v>
       </c>
       <c r="O27">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P27">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q27">
-        <v>14.28828506616011</v>
+        <v>4.654516373755111</v>
       </c>
       <c r="R27">
-        <v>128.594565595441</v>
+        <v>41.890647363796</v>
       </c>
       <c r="S27">
-        <v>0.07797932927064291</v>
+        <v>0.05238222184421339</v>
       </c>
       <c r="T27">
-        <v>0.1084055564548822</v>
+        <v>0.07123799953412036</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H28">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I28">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J28">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N28">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O28">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P28">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q28">
-        <v>3.217862822826667</v>
+        <v>1.494848549777333</v>
       </c>
       <c r="R28">
-        <v>28.96076540544</v>
+        <v>13.453636947996</v>
       </c>
       <c r="S28">
-        <v>0.01756171461075112</v>
+        <v>0.01682312018482905</v>
       </c>
       <c r="T28">
-        <v>0.02441400128068342</v>
+        <v>0.0228788582403687</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H29">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I29">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J29">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N29">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O29">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P29">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q29">
-        <v>9.470682068301667</v>
+        <v>1.568069041807334</v>
       </c>
       <c r="R29">
-        <v>56.82409240980999</v>
+        <v>9.408414250844</v>
       </c>
       <c r="S29">
-        <v>0.05168691917903771</v>
+        <v>0.01764714823609652</v>
       </c>
       <c r="T29">
-        <v>0.04790285910765959</v>
+        <v>0.01599967181690509</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H30">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I30">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J30">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N30">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O30">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P30">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q30">
-        <v>5.733461733111444</v>
+        <v>0.6676671773302222</v>
       </c>
       <c r="R30">
-        <v>51.60115559800299</v>
+        <v>6.009004595971999</v>
       </c>
       <c r="S30">
-        <v>0.03129077410457078</v>
+        <v>0.007513968668842746</v>
       </c>
       <c r="T30">
-        <v>0.0434999096611497</v>
+        <v>0.0102187360078455</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H31">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I31">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J31">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N31">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O31">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P31">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q31">
-        <v>3.295901475483222</v>
+        <v>0.7439190672573334</v>
       </c>
       <c r="R31">
-        <v>29.663113279349</v>
+        <v>6.695271605316001</v>
       </c>
       <c r="S31">
-        <v>0.01798761609320092</v>
+        <v>0.00837211226389472</v>
       </c>
       <c r="T31">
-        <v>0.0250060823825827</v>
+        <v>0.01138578144563412</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H32">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I32">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J32">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N32">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O32">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P32">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q32">
-        <v>2.1002940751735</v>
+        <v>0.9122264502633334</v>
       </c>
       <c r="R32">
-        <v>12.601764451041</v>
+        <v>5.47335870158</v>
       </c>
       <c r="S32">
-        <v>0.01146250389705792</v>
+        <v>0.01026625420404361</v>
       </c>
       <c r="T32">
-        <v>0.01062332052138355</v>
+        <v>0.009307832396264433</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H33">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I33">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J33">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>78.962081</v>
       </c>
       <c r="O33">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P33">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q33">
-        <v>5.176394314213222</v>
+        <v>1.620389637765556</v>
       </c>
       <c r="R33">
-        <v>46.58754882791899</v>
+        <v>14.58350673989</v>
       </c>
       <c r="S33">
-        <v>0.02825053915103581</v>
+        <v>0.01823596753426433</v>
       </c>
       <c r="T33">
-        <v>0.03927342598946187</v>
+        <v>0.02480028148812984</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H34">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I34">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J34">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N34">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O34">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P34">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q34">
-        <v>1.165775090773333</v>
+        <v>0.5204057533766666</v>
       </c>
       <c r="R34">
-        <v>10.49197581696</v>
+        <v>4.68365178039</v>
       </c>
       <c r="S34">
-        <v>0.006362300250729661</v>
+        <v>0.005856679283821935</v>
       </c>
       <c r="T34">
-        <v>0.008844763163063547</v>
+        <v>0.007964880094876866</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H35">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I35">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J35">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N35">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O35">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P35">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q35">
-        <v>3.431061501298333</v>
+        <v>0.5458962054516667</v>
       </c>
       <c r="R35">
-        <v>20.58636900779</v>
+        <v>3.27537723271</v>
       </c>
       <c r="S35">
-        <v>0.01872526152149846</v>
+        <v>0.006143550444707917</v>
       </c>
       <c r="T35">
-        <v>0.01735436312834462</v>
+        <v>0.005570009929699012</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H36">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I36">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J36">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N36">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O36">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P36">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q36">
-        <v>2.077132320541888</v>
+        <v>0.2324368180811111</v>
       </c>
       <c r="R36">
-        <v>18.694190884877</v>
+        <v>2.09193136273</v>
       </c>
       <c r="S36">
-        <v>0.01133609697820509</v>
+        <v>0.002615858661093288</v>
       </c>
       <c r="T36">
-        <v>0.0157592520023313</v>
+        <v>0.003557476783525824</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H37">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I37">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J37">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N37">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O37">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P37">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q37">
-        <v>1.194047121743444</v>
+        <v>0.2589825990766667</v>
       </c>
       <c r="R37">
-        <v>10.746424095691</v>
+        <v>2.330843391690001</v>
       </c>
       <c r="S37">
-        <v>0.006516596865191078</v>
+        <v>0.00291460656044062</v>
       </c>
       <c r="T37">
-        <v>0.009059263730152822</v>
+        <v>0.003963763534359315</v>
       </c>
     </row>
   </sheetData>
